--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value298.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value298.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.567992084682828</v>
+        <v>0.9346511960029602</v>
       </c>
       <c r="B1">
-        <v>1.621846075125678</v>
+        <v>1.614339232444763</v>
       </c>
       <c r="C1">
-        <v>1.774935713853783</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.587874751904149</v>
+        <v>2.460383176803589</v>
       </c>
       <c r="E1">
-        <v>0.8320407741586427</v>
+        <v>1.355513572692871</v>
       </c>
     </row>
   </sheetData>
